--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Specialisterne\Modulo\Analytics\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52366FBB-D420-47C3-9EB5-8E1D06276DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C49EA7D-02A8-45B9-9CBC-488E3ED3DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{666F72CE-FA0C-44AC-B17D-E36975F3035C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{666F72CE-FA0C-44AC-B17D-E36975F3035C}"/>
   </bookViews>
   <sheets>
     <sheet name="Inicial" sheetId="2" r:id="rId1"/>
     <sheet name="Acompanhamento Ana" sheetId="3" r:id="rId2"/>
-    <sheet name="Acompanhamento Ana (2)" sheetId="11" r:id="rId3"/>
-    <sheet name="Graficos Ana" sheetId="4" r:id="rId4"/>
-    <sheet name="Acompanhamento Joao" sheetId="9" r:id="rId5"/>
-    <sheet name="Graficos Joao" sheetId="10" r:id="rId6"/>
-    <sheet name="Acompanhamento Jose" sheetId="6" r:id="rId7"/>
-    <sheet name="Planilha2" sheetId="12" r:id="rId8"/>
-    <sheet name="Graficos Jose" sheetId="7" r:id="rId9"/>
+    <sheet name="Graficos Ana" sheetId="4" r:id="rId3"/>
+    <sheet name="Acompanhamento Joao" sheetId="9" r:id="rId4"/>
+    <sheet name="Graficos Joao" sheetId="10" r:id="rId5"/>
+    <sheet name="Acompanhamento Jose" sheetId="6" r:id="rId6"/>
+    <sheet name="Graficos Jose" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Um dos aspectos mais importantes no varejo é a taxa de conversão, ou seja, o aproveitamento dos clientes que entram na loja ou recebem uma ligação. Por exemplo: se em uma loja, entrarem dez clientes e apenas dois comprarem, a taxa de conversão é 20%. Conhecendo esta taxa, o lojista pode melhorar seu desempenho.
 Você deve preencher os Clientes Abordados e as Vendas Fechadas. A Taxa de conversão será calculada automaticamente.</t>
@@ -161,18 +159,6 @@
   <si>
     <t>João da Silva</t>
   </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>José</t>
-  </si>
-  <si>
-    <t>João2</t>
-  </si>
 </sst>
 </file>
 
@@ -186,7 +172,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="169" formatCode="mmmm/yy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,34 +184,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,54 +227,48 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -292,7 +278,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,84 +325,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5F497A"/>
         <bgColor rgb="FF5F497A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE36C09"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1261,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1374,235 +1282,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="6" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1654,70 +1333,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="11" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4667,7 +4291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F578B96-162D-46BE-8A14-AF4010EF5B58}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -6138,7 +5762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F820D79A-5855-4BD2-9765-86E246AA1A37}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -6162,24 +5786,24 @@
     <row r="1" spans="1:20" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="165"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="74"/>
       <c r="K2" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="83">
         <v>45292</v>
       </c>
-      <c r="M2" s="167"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="72"/>
       <c r="O2" s="22"/>
       <c r="P2" s="2"/>
@@ -6212,26 +5836,26 @@
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="167"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="69"/>
       <c r="H4" s="68"/>
-      <c r="I4" s="170" t="s">
+      <c r="I4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="171">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88">
         <v>2000</v>
       </c>
-      <c r="M4" s="167"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="19"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -6264,35 +5888,35 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="176"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="178" t="s">
+      <c r="K6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="97" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="181" t="s">
+      <c r="N6" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="182" t="s">
+      <c r="O6" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="161" t="s">
+      <c r="P6" s="78" t="s">
         <v>1</v>
       </c>
       <c r="Q6" s="7"/>
@@ -6302,7 +5926,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="173"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="38"/>
       <c r="D7" s="62" t="s">
         <v>19</v>
@@ -6321,12 +5945,12 @@
         <v>18</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="162"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="162"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="79"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -8896,1817 +8520,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1783ECBB-0B35-47AD-A506-3C60598DDA26}">
-  <dimension ref="A1:T53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="78"/>
-    <col min="2" max="2" width="8.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="78"/>
-    <col min="4" max="4" width="22.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="78"/>
-    <col min="8" max="8" width="9.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="78"/>
-    <col min="11" max="11" width="20" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="78"/>
-    <col min="14" max="14" width="18.5703125" style="78" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="78" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="130" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" s="130" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="194" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="197">
-        <v>45292</v>
-      </c>
-      <c r="M2" s="198"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="131"/>
-    </row>
-    <row r="3" spans="1:20" s="130" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="141"/>
-    </row>
-    <row r="4" spans="1:20" s="130" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
-      <c r="B4" s="199" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="200" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="195"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="199" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="201">
-        <v>2000</v>
-      </c>
-      <c r="M4" s="198"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="141"/>
-    </row>
-    <row r="5" spans="1:20" s="130" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="141"/>
-    </row>
-    <row r="6" spans="1:20" s="130" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="172" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="188" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="149"/>
-      <c r="N6" s="181" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="184" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="161" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="141"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="82"/>
-      <c r="H7" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="82"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="90">
-        <f>L2</f>
-        <v>45292</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="91">
-        <v>30</v>
-      </c>
-      <c r="E8" s="92">
-        <f t="shared" ref="E8:E35" si="0">L$4/(COUNT(B$8:B$38))</f>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F8" s="93">
-        <f t="shared" ref="F8:F38" si="1">IF(D8,D8-E8,"")</f>
-        <v>-34.516129032258064</v>
-      </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="94">
-        <f>D8</f>
-        <v>30</v>
-      </c>
-      <c r="I8" s="95">
-        <f>E8</f>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="96">
-        <f>D8</f>
-        <v>30</v>
-      </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="97">
-        <v>1</v>
-      </c>
-      <c r="O8" s="98">
-        <v>2</v>
-      </c>
-      <c r="P8" s="99">
-        <f t="shared" ref="P8:P30" si="2">(O8/N8)</f>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="82"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="90">
-        <f>L2+1</f>
-        <v>45293</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="91">
-        <v>20</v>
-      </c>
-      <c r="E9" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F9" s="93">
-        <f t="shared" si="1"/>
-        <v>-44.516129032258064</v>
-      </c>
-      <c r="G9" s="82"/>
-      <c r="H9" s="94">
-        <f t="shared" ref="H9:I30" si="3">D9+H8</f>
-        <v>50</v>
-      </c>
-      <c r="I9" s="95">
-        <f t="shared" si="3"/>
-        <v>129.03225806451613</v>
-      </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="91" t="str">
-        <f t="shared" ref="K9:K30" si="4">IF(D9="",($E$39-H9)/(COUNT($B$8:$B$38)-COUNT($D$8:$D$38)),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="96">
-        <f t="shared" ref="L9:L30" si="5">IF(D9="",L8+E9,L8+D9)</f>
-        <v>50</v>
-      </c>
-      <c r="M9" s="84"/>
-      <c r="N9" s="97">
-        <v>3</v>
-      </c>
-      <c r="O9" s="98">
-        <v>2</v>
-      </c>
-      <c r="P9" s="99">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="82"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="90">
-        <f>L2+2</f>
-        <v>45294</v>
-      </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="91">
-        <v>400</v>
-      </c>
-      <c r="E10" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F10" s="93">
-        <f t="shared" si="1"/>
-        <v>335.48387096774195</v>
-      </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="94">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="I10" s="95">
-        <f t="shared" si="3"/>
-        <v>193.54838709677421</v>
-      </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L10" s="96">
-        <f t="shared" si="5"/>
-        <v>450</v>
-      </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="97">
-        <v>4</v>
-      </c>
-      <c r="O10" s="98">
-        <v>20</v>
-      </c>
-      <c r="P10" s="99">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="90">
-        <f>L2+3</f>
-        <v>45295</v>
-      </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="91">
-        <v>7</v>
-      </c>
-      <c r="E11" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F11" s="93">
-        <f t="shared" si="1"/>
-        <v>-57.516129032258064</v>
-      </c>
-      <c r="G11" s="82"/>
-      <c r="H11" s="94">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="I11" s="95">
-        <f t="shared" si="3"/>
-        <v>258.06451612903226</v>
-      </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L11" s="96">
-        <f t="shared" si="5"/>
-        <v>457</v>
-      </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="97">
-        <v>5</v>
-      </c>
-      <c r="O11" s="98">
-        <v>3</v>
-      </c>
-      <c r="P11" s="99">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="82"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="90">
-        <f>L2+4</f>
-        <v>45296</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="91">
-        <v>80</v>
-      </c>
-      <c r="E12" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F12" s="93">
-        <f t="shared" si="1"/>
-        <v>15.483870967741936</v>
-      </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="94">
-        <f t="shared" si="3"/>
-        <v>537</v>
-      </c>
-      <c r="I12" s="95">
-        <f t="shared" si="3"/>
-        <v>322.58064516129031</v>
-      </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L12" s="96">
-        <f t="shared" si="5"/>
-        <v>537</v>
-      </c>
-      <c r="M12" s="84"/>
-      <c r="N12" s="97">
-        <v>6</v>
-      </c>
-      <c r="O12" s="98">
-        <v>3</v>
-      </c>
-      <c r="P12" s="99">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="82"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="90">
-        <f>L2+5</f>
-        <v>45297</v>
-      </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="91">
-        <v>45</v>
-      </c>
-      <c r="E13" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F13" s="93">
-        <f t="shared" si="1"/>
-        <v>-19.516129032258064</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="94">
-        <f t="shared" si="3"/>
-        <v>582</v>
-      </c>
-      <c r="I13" s="95">
-        <f t="shared" si="3"/>
-        <v>387.09677419354836</v>
-      </c>
-      <c r="J13" s="82"/>
-      <c r="K13" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L13" s="96">
-        <f t="shared" si="5"/>
-        <v>582</v>
-      </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="97">
-        <v>8</v>
-      </c>
-      <c r="O13" s="98">
-        <v>4</v>
-      </c>
-      <c r="P13" s="99">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="82"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="90">
-        <f>L2+6</f>
-        <v>45298</v>
-      </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="91">
-        <v>290</v>
-      </c>
-      <c r="E14" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F14" s="93">
-        <f t="shared" si="1"/>
-        <v>225.48387096774195</v>
-      </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="94">
-        <f t="shared" si="3"/>
-        <v>872</v>
-      </c>
-      <c r="I14" s="95">
-        <f t="shared" si="3"/>
-        <v>451.61290322580641</v>
-      </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L14" s="96">
-        <f t="shared" si="5"/>
-        <v>872</v>
-      </c>
-      <c r="M14" s="84"/>
-      <c r="N14" s="97">
-        <v>3</v>
-      </c>
-      <c r="O14" s="98">
-        <v>7</v>
-      </c>
-      <c r="P14" s="99">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="82"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="90">
-        <f>L2+7</f>
-        <v>45299</v>
-      </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="91">
-        <v>10</v>
-      </c>
-      <c r="E15" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F15" s="93">
-        <f t="shared" si="1"/>
-        <v>-54.516129032258064</v>
-      </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="94">
-        <f t="shared" si="3"/>
-        <v>882</v>
-      </c>
-      <c r="I15" s="95">
-        <f t="shared" si="3"/>
-        <v>516.12903225806451</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L15" s="96">
-        <f t="shared" si="5"/>
-        <v>882</v>
-      </c>
-      <c r="M15" s="84"/>
-      <c r="N15" s="97">
-        <v>5</v>
-      </c>
-      <c r="O15" s="98">
-        <v>5</v>
-      </c>
-      <c r="P15" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="82"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="90">
-        <f>L2+8</f>
-        <v>45300</v>
-      </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="91">
-        <v>15</v>
-      </c>
-      <c r="E16" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F16" s="93">
-        <f t="shared" si="1"/>
-        <v>-49.516129032258064</v>
-      </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="94">
-        <f t="shared" si="3"/>
-        <v>897</v>
-      </c>
-      <c r="I16" s="95">
-        <f t="shared" si="3"/>
-        <v>580.64516129032256</v>
-      </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L16" s="96">
-        <f t="shared" si="5"/>
-        <v>897</v>
-      </c>
-      <c r="M16" s="84"/>
-      <c r="N16" s="97">
-        <v>6</v>
-      </c>
-      <c r="O16" s="98">
-        <v>2</v>
-      </c>
-      <c r="P16" s="99">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="82"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="90">
-        <f>L2+9</f>
-        <v>45301</v>
-      </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="91">
-        <v>70</v>
-      </c>
-      <c r="E17" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F17" s="93">
-        <f t="shared" si="1"/>
-        <v>5.4838709677419359</v>
-      </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="94">
-        <f t="shared" si="3"/>
-        <v>967</v>
-      </c>
-      <c r="I17" s="95">
-        <f t="shared" si="3"/>
-        <v>645.16129032258061</v>
-      </c>
-      <c r="J17" s="82"/>
-      <c r="K17" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L17" s="96">
-        <f t="shared" si="5"/>
-        <v>967</v>
-      </c>
-      <c r="M17" s="84"/>
-      <c r="N17" s="97">
-        <v>6</v>
-      </c>
-      <c r="O17" s="98">
-        <v>1</v>
-      </c>
-      <c r="P17" s="99">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="82"/>
-    </row>
-    <row r="18" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="90">
-        <f>L2+10</f>
-        <v>45302</v>
-      </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="91">
-        <v>40</v>
-      </c>
-      <c r="E18" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F18" s="93">
-        <f t="shared" si="1"/>
-        <v>-24.516129032258064</v>
-      </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="94">
-        <f t="shared" si="3"/>
-        <v>1007</v>
-      </c>
-      <c r="I18" s="95">
-        <f t="shared" si="3"/>
-        <v>709.67741935483866</v>
-      </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L18" s="96">
-        <f t="shared" si="5"/>
-        <v>1007</v>
-      </c>
-      <c r="M18" s="84"/>
-      <c r="N18" s="97">
-        <v>7</v>
-      </c>
-      <c r="O18" s="98">
-        <v>2</v>
-      </c>
-      <c r="P18" s="99">
-        <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="82"/>
-    </row>
-    <row r="19" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="90">
-        <f>L2+11</f>
-        <v>45303</v>
-      </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="91">
-        <v>35</v>
-      </c>
-      <c r="E19" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F19" s="93">
-        <f t="shared" si="1"/>
-        <v>-29.516129032258064</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="94">
-        <f t="shared" si="3"/>
-        <v>1042</v>
-      </c>
-      <c r="I19" s="95">
-        <f t="shared" si="3"/>
-        <v>774.19354838709671</v>
-      </c>
-      <c r="J19" s="82"/>
-      <c r="K19" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L19" s="96">
-        <f t="shared" si="5"/>
-        <v>1042</v>
-      </c>
-      <c r="M19" s="84"/>
-      <c r="N19" s="97">
-        <v>8</v>
-      </c>
-      <c r="O19" s="98">
-        <v>14</v>
-      </c>
-      <c r="P19" s="99">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="82"/>
-    </row>
-    <row r="20" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="90">
-        <f>L2+12</f>
-        <v>45304</v>
-      </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="91">
-        <v>20</v>
-      </c>
-      <c r="E20" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F20" s="93">
-        <f t="shared" si="1"/>
-        <v>-44.516129032258064</v>
-      </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="94">
-        <f t="shared" si="3"/>
-        <v>1062</v>
-      </c>
-      <c r="I20" s="95">
-        <f t="shared" si="3"/>
-        <v>838.70967741935476</v>
-      </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L20" s="96">
-        <f t="shared" si="5"/>
-        <v>1062</v>
-      </c>
-      <c r="M20" s="84"/>
-      <c r="N20" s="97">
-        <v>9</v>
-      </c>
-      <c r="O20" s="98">
-        <v>5</v>
-      </c>
-      <c r="P20" s="99">
-        <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="82"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="90">
-        <f>L2+13</f>
-        <v>45305</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="91">
-        <v>15</v>
-      </c>
-      <c r="E21" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F21" s="93">
-        <f t="shared" si="1"/>
-        <v>-49.516129032258064</v>
-      </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="94">
-        <f t="shared" si="3"/>
-        <v>1077</v>
-      </c>
-      <c r="I21" s="95">
-        <f t="shared" si="3"/>
-        <v>903.22580645161281</v>
-      </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L21" s="96">
-        <f t="shared" si="5"/>
-        <v>1077</v>
-      </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="97">
-        <v>2</v>
-      </c>
-      <c r="O21" s="98">
-        <v>3</v>
-      </c>
-      <c r="P21" s="99">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="82"/>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="90">
-        <f>L2+14</f>
-        <v>45306</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="91">
-        <v>18</v>
-      </c>
-      <c r="E22" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F22" s="93">
-        <f t="shared" si="1"/>
-        <v>-46.516129032258064</v>
-      </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="94">
-        <f t="shared" si="3"/>
-        <v>1095</v>
-      </c>
-      <c r="I22" s="95">
-        <f t="shared" si="3"/>
-        <v>967.74193548387086</v>
-      </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L22" s="96">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="M22" s="84"/>
-      <c r="N22" s="97">
-        <v>3</v>
-      </c>
-      <c r="O22" s="98">
-        <v>3</v>
-      </c>
-      <c r="P22" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="82"/>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="90">
-        <f>L2+15</f>
-        <v>45307</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="91">
-        <v>90</v>
-      </c>
-      <c r="E23" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F23" s="93">
-        <f t="shared" si="1"/>
-        <v>25.483870967741936</v>
-      </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="94">
-        <f t="shared" si="3"/>
-        <v>1185</v>
-      </c>
-      <c r="I23" s="95">
-        <f t="shared" si="3"/>
-        <v>1032.258064516129</v>
-      </c>
-      <c r="J23" s="82"/>
-      <c r="K23" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L23" s="96">
-        <f t="shared" si="5"/>
-        <v>1185</v>
-      </c>
-      <c r="M23" s="84"/>
-      <c r="N23" s="97">
-        <v>6</v>
-      </c>
-      <c r="O23" s="98">
-        <v>2</v>
-      </c>
-      <c r="P23" s="99">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="82"/>
-    </row>
-    <row r="24" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="90">
-        <f>L2+16</f>
-        <v>45308</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="91">
-        <v>50</v>
-      </c>
-      <c r="E24" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F24" s="93">
-        <f t="shared" si="1"/>
-        <v>-14.516129032258064</v>
-      </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="94">
-        <f t="shared" si="3"/>
-        <v>1235</v>
-      </c>
-      <c r="I24" s="95">
-        <f t="shared" si="3"/>
-        <v>1096.7741935483871</v>
-      </c>
-      <c r="J24" s="82"/>
-      <c r="K24" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L24" s="96">
-        <f t="shared" si="5"/>
-        <v>1235</v>
-      </c>
-      <c r="M24" s="84"/>
-      <c r="N24" s="97">
-        <v>7</v>
-      </c>
-      <c r="O24" s="98">
-        <v>3</v>
-      </c>
-      <c r="P24" s="99">
-        <f t="shared" si="2"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="82"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="90">
-        <f>L2+17</f>
-        <v>45309</v>
-      </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="91">
-        <v>40</v>
-      </c>
-      <c r="E25" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F25" s="93">
-        <f t="shared" si="1"/>
-        <v>-24.516129032258064</v>
-      </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="94">
-        <f t="shared" si="3"/>
-        <v>1275</v>
-      </c>
-      <c r="I25" s="95">
-        <f t="shared" si="3"/>
-        <v>1161.2903225806451</v>
-      </c>
-      <c r="J25" s="82"/>
-      <c r="K25" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L25" s="96">
-        <f t="shared" si="5"/>
-        <v>1275</v>
-      </c>
-      <c r="M25" s="84"/>
-      <c r="N25" s="97">
-        <v>5</v>
-      </c>
-      <c r="O25" s="98">
-        <v>5</v>
-      </c>
-      <c r="P25" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="82"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="90">
-        <f>L2+18</f>
-        <v>45310</v>
-      </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="91">
-        <v>20</v>
-      </c>
-      <c r="E26" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F26" s="93">
-        <f t="shared" si="1"/>
-        <v>-44.516129032258064</v>
-      </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="94">
-        <f t="shared" si="3"/>
-        <v>1295</v>
-      </c>
-      <c r="I26" s="95">
-        <f t="shared" si="3"/>
-        <v>1225.8064516129032</v>
-      </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L26" s="96">
-        <f t="shared" si="5"/>
-        <v>1295</v>
-      </c>
-      <c r="M26" s="84"/>
-      <c r="N26" s="97">
-        <v>5</v>
-      </c>
-      <c r="O26" s="98">
-        <v>6</v>
-      </c>
-      <c r="P26" s="99">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="82"/>
-    </row>
-    <row r="27" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="90">
-        <f>L2+19</f>
-        <v>45311</v>
-      </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="91">
-        <v>200</v>
-      </c>
-      <c r="E27" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F27" s="93">
-        <f t="shared" si="1"/>
-        <v>135.48387096774195</v>
-      </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="94">
-        <f t="shared" si="3"/>
-        <v>1495</v>
-      </c>
-      <c r="I27" s="95">
-        <f t="shared" si="3"/>
-        <v>1290.3225806451612</v>
-      </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L27" s="96">
-        <f t="shared" si="5"/>
-        <v>1495</v>
-      </c>
-      <c r="M27" s="84"/>
-      <c r="N27" s="97">
-        <v>5</v>
-      </c>
-      <c r="O27" s="98">
-        <v>4</v>
-      </c>
-      <c r="P27" s="99">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="82"/>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="90">
-        <f>L2+20</f>
-        <v>45312</v>
-      </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="91">
-        <v>700</v>
-      </c>
-      <c r="E28" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F28" s="93">
-        <f t="shared" si="1"/>
-        <v>635.48387096774195</v>
-      </c>
-      <c r="G28" s="82"/>
-      <c r="H28" s="94">
-        <f t="shared" si="3"/>
-        <v>2195</v>
-      </c>
-      <c r="I28" s="95">
-        <f t="shared" si="3"/>
-        <v>1354.8387096774193</v>
-      </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L28" s="96">
-        <f t="shared" si="5"/>
-        <v>2195</v>
-      </c>
-      <c r="M28" s="84"/>
-      <c r="N28" s="97">
-        <v>4</v>
-      </c>
-      <c r="O28" s="98">
-        <v>5</v>
-      </c>
-      <c r="P28" s="99">
-        <f t="shared" si="2"/>
-        <v>1.25</v>
-      </c>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="82"/>
-    </row>
-    <row r="29" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="90">
-        <f>L2+21</f>
-        <v>45313</v>
-      </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="91">
-        <v>50</v>
-      </c>
-      <c r="E29" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F29" s="93">
-        <f t="shared" si="1"/>
-        <v>-14.516129032258064</v>
-      </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="94">
-        <f t="shared" si="3"/>
-        <v>2245</v>
-      </c>
-      <c r="I29" s="95">
-        <f t="shared" si="3"/>
-        <v>1419.3548387096773</v>
-      </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L29" s="96">
-        <f t="shared" si="5"/>
-        <v>2245</v>
-      </c>
-      <c r="M29" s="84"/>
-      <c r="N29" s="97">
-        <v>3</v>
-      </c>
-      <c r="O29" s="98">
-        <v>3</v>
-      </c>
-      <c r="P29" s="99">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="82"/>
-    </row>
-    <row r="30" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="90">
-        <f>L2+22</f>
-        <v>45314</v>
-      </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="91">
-        <v>200</v>
-      </c>
-      <c r="E30" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F30" s="93">
-        <f t="shared" si="1"/>
-        <v>135.48387096774195</v>
-      </c>
-      <c r="G30" s="82"/>
-      <c r="H30" s="94">
-        <f t="shared" si="3"/>
-        <v>2445</v>
-      </c>
-      <c r="I30" s="95">
-        <f t="shared" si="3"/>
-        <v>1483.8709677419354</v>
-      </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="91" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L30" s="96">
-        <f t="shared" si="5"/>
-        <v>2445</v>
-      </c>
-      <c r="M30" s="84"/>
-      <c r="N30" s="97">
-        <v>2</v>
-      </c>
-      <c r="O30" s="98">
-        <v>4</v>
-      </c>
-      <c r="P30" s="99">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="82"/>
-    </row>
-    <row r="31" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
-      <c r="B31" s="90">
-        <f>L2+23</f>
-        <v>45315</v>
-      </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F31" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="82"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="82"/>
-    </row>
-    <row r="32" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="90">
-        <f>L2+24</f>
-        <v>45316</v>
-      </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F32" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="82"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="82"/>
-    </row>
-    <row r="33" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="90">
-        <f>L2+25</f>
-        <v>45317</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F33" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="82"/>
-    </row>
-    <row r="34" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="90">
-        <f>L2+26</f>
-        <v>45318</v>
-      </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F34" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="82"/>
-    </row>
-    <row r="35" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="90">
-        <f>L2+27</f>
-        <v>45319</v>
-      </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92">
-        <f t="shared" si="0"/>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F35" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="82"/>
-    </row>
-    <row r="36" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="90">
-        <f>IF((DAY(L2+28) &gt; 10),L2+28,"")</f>
-        <v>45320</v>
-      </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92">
-        <f>IF((DAY(L2+28) &gt; 10),L$4/(COUNT(B$8:B$38)),"")</f>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F36" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="82"/>
-    </row>
-    <row r="37" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="90">
-        <f>IF((DAY(L2+29) &gt; 10),L2+29,"")</f>
-        <v>45321</v>
-      </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92">
-        <f>IF((DAY(L2+29) &gt; 10),L$4/(COUNT(B$8:B$38)),"")</f>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F37" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="82"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="82"/>
-    </row>
-    <row r="38" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="100">
-        <f>IF((DAY(L2+30) &gt; 10),L2+30,"")</f>
-        <v>45322</v>
-      </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92">
-        <f>IF((DAY(L2+30) &gt; 10),L$4/(COUNT(B$8:B$38)),"")</f>
-        <v>64.516129032258064</v>
-      </c>
-      <c r="F38" s="101" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="82"/>
-    </row>
-    <row r="39" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="109">
-        <f>SUM(D8:D38)</f>
-        <v>2445</v>
-      </c>
-      <c r="E39" s="110">
-        <f>SUM(E8:E38)</f>
-        <v>1999.9999999999998</v>
-      </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116">
-        <f>SUM(N8:N38)</f>
-        <v>113</v>
-      </c>
-      <c r="O39" s="117">
-        <f>SUM(O8:O38)</f>
-        <v>108</v>
-      </c>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="82"/>
-    </row>
-    <row r="40" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="122">
-        <f>AVERAGE(D8:D30)</f>
-        <v>106.30434782608695</v>
-      </c>
-      <c r="F40" s="123"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="82"/>
-    </row>
-    <row r="41" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="125">
-        <f>VARA(D8:D30)</f>
-        <v>26729.948616600792</v>
-      </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="82"/>
-    </row>
-    <row r="42" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="82"/>
-    </row>
-    <row r="43" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
-      <c r="S43" s="83"/>
-      <c r="T43" s="126"/>
-    </row>
-    <row r="44" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="126"/>
-      <c r="B44" s="127"/>
-    </row>
-    <row r="52" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="128"/>
-      <c r="F52" s="129"/>
-    </row>
-    <row r="53" spans="5:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="128"/>
-      <c r="F53" s="129"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB04A163-C2DA-42BB-A4F6-423AA3CED010}">
   <dimension ref="A18:M1000"/>
   <sheetViews>
@@ -11737,11 +9550,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E90BCE-7DEB-4287-9FAE-3B81AD7580AE}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
@@ -11765,24 +9578,24 @@
     <row r="1" spans="1:20" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="165"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="74"/>
       <c r="K2" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="83">
         <v>45292</v>
       </c>
-      <c r="M2" s="167"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="72"/>
       <c r="O2" s="22"/>
       <c r="P2" s="2"/>
@@ -11815,26 +9628,26 @@
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="167"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="69"/>
       <c r="H4" s="68"/>
-      <c r="I4" s="170" t="s">
+      <c r="I4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="171">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88">
         <v>2000</v>
       </c>
-      <c r="M4" s="167"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="19"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -11867,35 +9680,35 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="176"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="178" t="s">
+      <c r="K6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="97" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="181" t="s">
+      <c r="N6" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="182" t="s">
+      <c r="O6" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="161" t="s">
+      <c r="P6" s="78" t="s">
         <v>1</v>
       </c>
       <c r="Q6" s="7"/>
@@ -11905,7 +9718,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="173"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="38"/>
       <c r="D7" s="62" t="s">
         <v>19</v>
@@ -11924,12 +9737,12 @@
         <v>18</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="162"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="162"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="79"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -14502,7 +12315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9F640-2914-4803-9B16-F6C589C300BD}">
   <dimension ref="A18:B1000"/>
   <sheetViews>
@@ -15531,12 +13344,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9B9EF5-2D56-4E50-8C95-FC73454BAF8F}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15559,24 +13372,24 @@
     <row r="1" spans="1:20" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="165"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="74"/>
       <c r="K2" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="83">
         <v>45292</v>
       </c>
-      <c r="M2" s="167"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="72"/>
       <c r="O2" s="22"/>
       <c r="P2" s="2"/>
@@ -15609,26 +13422,26 @@
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="164"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="167"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="69"/>
       <c r="H4" s="68"/>
-      <c r="I4" s="170" t="s">
+      <c r="I4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="171">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="88">
         <v>2000</v>
       </c>
-      <c r="M4" s="167"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="19"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -15661,35 +13474,35 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="176"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="178" t="s">
+      <c r="K6" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="180" t="s">
+      <c r="L6" s="97" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="203" t="s">
+      <c r="N6" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="204" t="s">
+      <c r="O6" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="161" t="s">
+      <c r="P6" s="78" t="s">
         <v>1</v>
       </c>
       <c r="Q6" s="7"/>
@@ -15699,7 +13512,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="173"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="38"/>
       <c r="D7" s="62" t="s">
         <v>19</v>
@@ -15718,12 +13531,12 @@
         <v>18</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="162"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="79"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="162"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="79"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -18292,72 +16105,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072DF7A7-9625-443A-9E7C-4AA705ADAFC0}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="150"/>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="151"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="152"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="154"/>
-      <c r="B5" s="160" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="155"/>
-      <c r="B6" s="160" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
-      <c r="G7" s="205"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="158"/>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="159"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FFF538-42D9-478D-A3DA-072C45A3E551}">
   <dimension ref="A18:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
